--- a/NopCommerce/TestBase/TC_AddToCartTest_Report.xlsx
+++ b/NopCommerce/TestBase/TC_AddToCartTest_Report.xlsx
@@ -1,111 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual Result (After Execution)</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>Comments (Optional)</t>
-  </si>
-  <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>Add all items with random amounts</t>
-  </si>
-  <si>
-    <t>Check cart updates</t>
-  </si>
-  <si>
-    <t>Pick random item, search for it and then add it to cart</t>
-  </si>
-  <si>
-    <t>Multiple clicks on add to cart for an amount other than 1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="13"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="13"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Inherit"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,40 +100,99 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,112 +482,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="61" customWidth="1"/>
+    <col width="15.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="31.140625" customWidth="1" min="2" max="2"/>
+    <col width="29.7109375" customWidth="1" min="3" max="3"/>
+    <col width="21.85546875" customWidth="1" min="4" max="4"/>
+    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="36.7109375" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="13.140625" customWidth="1" min="7" max="7"/>
+    <col width="61" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Result (After Execution)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Comments (Optional)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33.75" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+    <row r="2" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>TC_01</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Add all items with random amounts</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
     </row>
-    <row r="3" spans="1:8" ht="33.75" thickBot="1">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+    <row r="3" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>TC_02</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Pick random item, search for it and then add it to cart</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
     </row>
-    <row r="4" spans="1:8" ht="50.25" thickBot="1">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+    <row r="4" ht="50.25" customHeight="1" thickBot="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TC_03</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Multiple clicks on add to cart for an amount other than 1</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="4" t="n"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+    <row r="5" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>TC_04</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Check cart updates</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="4" t="n"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="E15" s="6"/>
+    <row r="15">
+      <c r="E15" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/NopCommerce/TestBase/TC_AddToCartTest_Report.xlsx
+++ b/NopCommerce/TestBase/TC_AddToCartTest_Report.xlsx
@@ -1,59 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_Projects\NopCommerce\TestBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result (After Execution)</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Comments (Optional)</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>Search and pick 'HTC One Mini Blue' (without clicking the item card)</t>
+  </si>
+  <si>
+    <t>Notification item added successfully</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Abnormal behavior from the button, it has to be clicked twice after search to act, although it's clickable.</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Pick 'Build your own computer'  from Home page(by clicking the item card)</t>
+  </si>
+  <si>
+    <t>This TC, the button behaves normally after we clicked the item card first. Previous TC the click was on the add to cart on the item card itself.</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Multiple clicks on add to cart for an amount other than 1</t>
+  </si>
+  <si>
+    <t>Notification items added successfully</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Check cart updates</t>
+  </si>
+  <si>
+    <t>Items added matches the cart content</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="13"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="0"/>
-      <sz val="13"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
       <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
     </font>
     <font>
-      <name val="Inherit"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,7 +132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.3999755851924192"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -95,104 +161,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -482,148 +487,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="15.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="31.140625" customWidth="1" min="2" max="2"/>
-    <col width="29.7109375" customWidth="1" min="3" max="3"/>
-    <col width="21.85546875" customWidth="1" min="4" max="4"/>
-    <col width="33" customWidth="1" min="5" max="5"/>
-    <col width="36.7109375" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="13.140625" customWidth="1" min="7" max="7"/>
-    <col width="61" customWidth="1" min="8" max="8"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="98.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Test Case ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Expected Result</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Actual Result (After Execution)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pass/Fail</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Comments (Optional)</t>
-        </is>
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>TC_01</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Add all items with random amounts</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
+    <row r="2" spans="1:6" ht="33.75" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>TC_02</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Pick random item, search for it and then add it to cart</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+    <row r="3" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>TC_03</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Multiple clicks on add to cart for an amount other than 1</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="5" t="n"/>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+    <row r="4" spans="1:6" ht="50.25" customHeight="1" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
-    <row r="5" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>TC_04</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Check cart updates</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+    <row r="5" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
-    <row r="15">
-      <c r="E15" s="6" t="n"/>
+    <row r="15" spans="1:6">
+      <c r="C15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NopCommerce/TestBase/TC_AddToCartTest_Report.xlsx
+++ b/NopCommerce/TestBase/TC_AddToCartTest_Report.xlsx
@@ -1,125 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_Projects\NopCommerce\TestBase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual Result (After Execution)</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>Comments (Optional)</t>
-  </si>
-  <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>Search and pick 'HTC One Mini Blue' (without clicking the item card)</t>
-  </si>
-  <si>
-    <t>Notification item added successfully</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Abnormal behavior from the button, it has to be clicked twice after search to act, although it's clickable.</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>Pick 'Build your own computer'  from Home page(by clicking the item card)</t>
-  </si>
-  <si>
-    <t>This TC, the button behaves normally after we clicked the item card first. Previous TC the click was on the add to cart on the item card itself.</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>Multiple clicks on add to cart for an amount other than 1</t>
-  </si>
-  <si>
-    <t>Notification items added successfully</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>Check cart updates</t>
-  </si>
-  <si>
-    <t>Items added matches the cart content</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="13"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="13"/>
     </font>
     <font>
+      <name val="Inherit"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Inherit"/>
     </font>
     <font>
-      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="13"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,7 +63,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,39 +96,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -487,116 +477,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D2" sqref="D2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="98.140625" customWidth="1"/>
+    <col width="15.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="41.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="36.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.140625" customWidth="1" min="5" max="5"/>
+    <col width="98.140625" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Result (After Execution)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Comments (Optional)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33.75" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
+    <row r="2" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>TC_01</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Search and pick 'HTC One Mini Blue' (without clicking the item card)</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Notification item added successfully</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Notification item added successfully</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
     </row>
-    <row r="3" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
+    <row r="3" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>TC_02</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Pick 'Build your own computer'  from Home page(by clicking the item card)</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Notification item added successfully</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Notification item added successfully</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
     </row>
-    <row r="4" spans="1:6" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+    <row r="4" ht="50.25" customHeight="1" thickBot="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TC_03</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Multiple clicks on add to cart for an amount other than 1</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Notification items added successfully</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
     </row>
-    <row r="5" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+    <row r="5" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>TC_04</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Check cart updates</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Items added matches the cart content</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
+      <c r="F5" s="6" t="n"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="5"/>
+    <row r="15">
+      <c r="C15" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/NopCommerce/TestBase/TC_AddToCartTest_Report.xlsx
+++ b/NopCommerce/TestBase/TC_AddToCartTest_Report.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -602,8 +602,16 @@
           <t>Notification items added successfully</t>
         </is>
       </c>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>item quantity added successfully</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="F4" s="6" t="n"/>
     </row>
     <row r="5" ht="37.5" customHeight="1" thickBot="1">
@@ -614,17 +622,53 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Check cart updates</t>
+          <t>Check cart updates (Following TC_03 Steps)</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Items added matches the cart content</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
+          <t>Items added matches the cart content (Following TC_03 steps)</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Follow up cart successfully checked </t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="F5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>TC_05</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Remove item from cart (0 items in cart)</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Cart becomes empty after adding then removing one item</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>item removal successful</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="C15" s="5" t="n"/>
